--- a/ALETHIA.xlsx
+++ b/ALETHIA.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1AB54A-532E-114D-8FC7-E8FBF584E508}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E41D26F-EECE-AB43-99BA-0468867112A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,15 @@
   <definedNames>
     <definedName name="_GoBack" localSheetId="0">Plan1!$A$30</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -551,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
